--- a/riskaverse_corrected/results/benchmark/combined/csv/combined_benchmarks.xlsx
+++ b/riskaverse_corrected/results/benchmark/combined/csv/combined_benchmarks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="all_combined_statistics" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,7 @@
     <sheet name="nodb_v5_l0" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="nodb_v5_l50" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="nodb_v5_l100" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="abbreviations" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="173">
   <si>
     <t xml:space="preserve">db_nodb</t>
   </si>
@@ -501,6 +502,127 @@
   <si>
     <t xml:space="preserve">count_db_lower_rt</t>
   </si>
+  <si>
+    <t xml:space="preserve">Algorithm that uses database(corresponds to cache in programming methodology)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm without db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var_level, where n=100*originalvar_level. Therefore, v5 means var_level is 0.05 (var_level is 0.05 for all runs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ln</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">lamda, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">where n=100*originallamda. Therefore, l5 means lamda is 0.5 ( lamda takes values 0, 0.5, 1)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Average runtime of algorithm that uses db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average runtime of algorithm that doesnt use db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average total cost of algorithm that uses db</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Average </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">total cost </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> of algorithm that doesn’t use db</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Number of times where algorithm using db has lower total cost scores than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">algorithm not using db</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of times where algorithm using db has equal total cost scores with algorithm not using db</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Number of times where algorithm using db has lower running time than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">algorithm using nondb</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">checks if total cost value of db is lower than the corresponding nondb tc value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checks if total cost value of db is equal to the corresponding nondb tc value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checks if running time value of db is less than the corresponding nondb rt value</t>
+  </si>
 </sst>
 </file>
 
@@ -509,7 +631,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -537,6 +659,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -605,7 +732,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -631,6 +758,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -713,8 +844,8 @@
   </sheetPr>
   <dimension ref="A1:T153"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C115" activeCellId="0" sqref="C115"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D105" activeCellId="0" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6747,7 +6878,7 @@
       </c>
       <c r="D100" s="3" t="n">
         <f aca="false">(B100-B101)*100/B100</f>
-        <v>-16.3352488179071</v>
+        <v>-16.3352488179072</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>147</v>
@@ -6797,7 +6928,7 @@
       </c>
       <c r="B106" s="5" t="n">
         <f aca="false">SUM(D106:D153)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D106" s="0" t="n">
         <f aca="false">IF(E2&lt;E50,1,0)</f>
@@ -6871,7 +7002,7 @@
       </c>
       <c r="D110" s="0" t="n">
         <f aca="false">IF(E6&lt;E54,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110" s="0" t="n">
         <f aca="false">IF(F6=F54,1,0)</f>
@@ -6899,7 +7030,7 @@
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D112" s="0" t="n">
         <f aca="false">IF(E8&lt;E56,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112" s="0" t="n">
         <f aca="false">IF(F8=F56,1,0)</f>
@@ -7509,21 +7640,21 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="248.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="248.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="54.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="54.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="287.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.59"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -8528,6 +8659,147 @@
       </c>
       <c r="S17" s="0" t="n">
         <v>7067363.71299708</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="94.59"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -8548,7 +8820,7 @@
   </sheetPr>
   <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G109" activeCellId="0" sqref="G109"/>
     </sheetView>
   </sheetViews>
@@ -20420,6 +20692,3142 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:S17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="248.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="287.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="16" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>741498.337158955</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>100532.222698927</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>16817.1971399973</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>6062310.91077441</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>5017640.27594874</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>25531214.3822115</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>31057302.516484</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>972521.05553336</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>48134.9911398888</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>11197.9235423612</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>1737949.32877629</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>1344034.07426498</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>5715130.94520644</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>5558959.77484424</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>651073.429219388</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>17976.5067749023</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>23139.5063997565</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>2560475.33542939</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>722347.338618447</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>8659784.13305793</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>9998380.68009818</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1111003.61228933</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>42265.6797640324</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>28356.549203413</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>4632940.87265005</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>1348328.37949447</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>44194762.2076698</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>45260017.9860688</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1011644.41177864</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>57067.7263650894</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>22040.3466075055</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>3675308.13510161</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>1089007.45353584</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>18548504.3059476</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>21235542.232624</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>749550.441264133</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>60791.0510411263</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>26739.7311264038</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>964044.388875695</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>587712.444327721</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>3444556.53683836</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>3720968.5082203</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1028644.90516583</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>69296.4569950104</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>15939.3303079805</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>1482621.19448821</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>1090173.56988045</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>4016497.33691588</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>5030575.21077627</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>539099.857801372</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>25102.269051075</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>16540.2726617584</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>804735.01245143</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>567466.000116429</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>1436710.07177838</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>2008601.74856288</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>88824.7858357935</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>25566.8532571793</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>16360.5582213668</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>3029021.14251008</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>605938.19181704</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>26493533.9313963</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>25627535.2350134</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>151026.705205533</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>44025.4521610737</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>13656.6280502631</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>880762.023363596</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>304087.503108845</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>3501722.81363272</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>4339672.24696746</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>144600.032361014</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>77146.5950160027</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>24016.7139565509</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>824964.012997956</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>166097.259021996</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>3326352.39440016</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>4742902.82225368</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>152332.34718629</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>20746.5866479874</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>21257.2335831864</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>690602.189379641</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>248216.500591761</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>2256503.66961461</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>2839988.7505109</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>95586.352224756</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>44434.8614292145</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>23745.960147704</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>1762111.47512834</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>210537.880461124</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>10749783.8699085</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>11357930.6247864</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>140496.716107455</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>40711.18095994</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>31685.9618150527</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>1901958.02774353</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>228202.887389718</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>12267859.0065223</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>17272392.3296766</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>97545.0543286785</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>63660.8893508911</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>21743.1312278927</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>2092867.6631152</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>383212.938999941</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>8026241.61778696</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>10004111.2148167</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>171042.086932155</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>67796.4947898388</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>21409.4899098416</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>2891252.97461148</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>599445.629190874</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>28208226.3842552</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>31485350.5619204</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:S17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="248.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="55.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="287.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="16" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>537954.036818773</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>35573.6865539551</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>16817.1971399973</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>1977420.6841908</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>897155.771553822</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>9223292.34100676</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>9506023.30657233</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>869685.824005916</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>16321.2349669933</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>11197.9235423612</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>1014473.14813146</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>980138.802378513</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>3530055.10295724</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>3332241.77892617</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>523324.988595381</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>19457.1445939541</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>23139.5063997565</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>710243.083182635</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>524206.213632387</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>1655541.05256079</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>1717358.55274969</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>864506.886066449</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>28816.4783639908</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>28356.549203413</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>1756254.81005516</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>875715.526022474</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>17298436.0102255</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>17400973.8245714</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>844548.304567426</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>14197.0386722088</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>22040.3466075055</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>1563334.44450489</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>848953.062272082</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>8258748.55147738</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>7543785.07847967</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>522482.897081469</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>23799.4644610882</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>26739.7311264038</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>588469.755401512</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>523251.063773534</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>1240240.98729878</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>1329626.16578799</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>920888.657211376</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>52787.8553440571</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>15939.3303079805</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>990437.594244857</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>935207.552410522</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>1971310.61776476</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>2070858.72712031</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>511655.112921326</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>19652.2111339569</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>16540.2726617584</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>534132.143866599</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>520338.636586131</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>643855.950430568</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>674206.624823728</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>66038.2904398544</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>60674.8983578682</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>16360.5582213668</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>926020.220298434</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>99604.9318749936</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>11083297.853285</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>10769416.9043535</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>108949.951729806</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>50988.3835217953</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>13656.6280502631</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>200248.495707664</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>121382.263837047</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>1340983.99481241</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>1259197.63998345</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>73912.2206363735</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>47354.1473350525</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>24016.7139565509</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>183129.855503526</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>76329.8038217451</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>1325229.38546283</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>1704472.26311484</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>110432.217372229</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>41668.6129140854</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>21257.2335831864</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>191797.767348722</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>123933.136558127</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>934435.59323258</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>1035925.83413785</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>74445.0630760042</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>62876.0928900242</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>23745.960147704</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>297925.46663134</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>73957.3191796113</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>2420170.02592487</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>2499470.13601189</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>115070.285169121</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>37134.6895549297</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>31685.9618150527</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>338446.084196391</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>115882.667888339</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>2659208.00052762</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>2933272.43670067</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>71704.3933309187</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>26193.9959988594</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>21743.1312278927</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>310526.044193345</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>79559.5137332646</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>1872742.3777601</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>2226420.3934249</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>116636.687964172</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>45613.0712919235</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>21409.4899098416</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>803986.98402127</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>166074.308879108</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>13267965.99493</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>13487137.7755961</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:S17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="248.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="54.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="287.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.59"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>486907.886932466</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>46554.0493149757</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>16817.1971399973</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>1395738.73008275</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>623570.885550257</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>3876479.75145718</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>4448087.06592885</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>900496.898611232</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>16488.1138911247</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>11197.9235423612</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>936664.381099712</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>907025.643857524</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>2268238.0741195</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>2071000.10094361</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>521479.506213834</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>31984.7635409832</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>23139.5063997565</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>615926.856051078</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>521566.614944994</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>949131.022672108</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>1010984.94125716</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>861513.527213924</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>40847.1505260468</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>28356.549203413</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>1429412.13965963</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>872322.609080368</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>9595205.13416888</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>10099408.7460676</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>841350.582814073</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>24431.8340928555</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>22040.3466075055</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>1279081.46802833</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>846525.856239849</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>4399478.23102202</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>4457063.92348996</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>522446.555770534</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>16035.1202120781</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>26739.7311264038</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>550501.498437679</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>521934.519581183</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>684428.933942014</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>705052.025610856</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>919569.437097987</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>36394.5602221489</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>15939.3303079805</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>948553.051338912</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>920164.00736129</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>1117252.95003404</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>1170747.13346899</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>511284.218941639</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>18641.9212751389</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>16540.2726617584</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>524890.050068194</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>511498.782568917</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>563171.271542075</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>591140.710218814</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>66356.9133085336</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>20929.4788639545</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>16360.5582213668</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>563677.582070343</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>80381.0849614874</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>5524185.62623843</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>5431739.20743646</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>108743.263924848</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>30046.2736740112</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>13656.6280502631</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>147186.5322472</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>109802.997416902</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>318587.248214646</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>359075.062541147</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>73368.6452985953</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>32877.6265361309</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>24016.7139565509</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>108314.652872738</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>74533.5072173206</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>250002.448311071</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>311024.114860195</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>109430.084457107</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>29749.2650539875</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>21257.2335831864</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>136793.587119057</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>110668.227390671</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>257865.690047125</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>280744.961548847</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>72052.3788455846</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>74118.1093239784</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>23745.960147704</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>160366.82392844</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>72103.9312495417</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>646153.822236945</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>668923.41044472</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>114282.104563077</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>19398.5121629238</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>31685.9618150527</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>227218.462126305</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>114877.769904675</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>848494.472537685</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>1110624.14506934</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>70783.564777429</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>33576.8892908096</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>21743.1312278927</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>151596.357445802</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>70762.0856754203</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>489595.286667648</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>561776.328404719</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>115670.254409431</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>99499.5061860085</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>21409.4899098416</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>532809.761029605</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>141672.8646762</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>6866469.7365296</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>7067363.71299708</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -20526,3142 +23934,6 @@
         <v>24</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>100532.222698927</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>16817.1971399973</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>6062310.91077441</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>5017640.27594874</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>25531214.3822115</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>31057302.516484</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>972521.05553336</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>48134.9911398888</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>11197.9235423612</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>1737949.32877629</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>1344034.07426498</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>5715130.94520644</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>5558959.77484424</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>651073.429219388</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>17976.5067749023</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>23139.5063997565</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>2560475.33542939</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>722347.338618447</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>8659784.13305793</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>9998380.68009818</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1111003.61228933</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>42265.6797640324</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>28356.549203413</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>4632940.87265005</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>1348328.37949447</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>44194762.2076698</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>45260017.9860688</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1011644.41177864</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>57067.7263650894</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>22040.3466075055</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>3675308.13510161</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>1089007.45353584</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>18548504.3059476</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>21235542.232624</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>749550.441264133</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>60791.0510411263</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>26739.7311264038</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>964044.388875695</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>587712.444327721</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>3444556.53683836</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>3720968.5082203</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1028644.90516583</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>69296.4569950104</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>15939.3303079805</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>1482621.19448821</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>1090173.56988045</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>4016497.33691588</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>5030575.21077627</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>539099.857801372</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>25102.269051075</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>16540.2726617584</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>804735.01245143</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>567466.000116429</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>1436710.07177838</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>2008601.74856288</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>88824.7858357935</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>25566.8532571793</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>16360.5582213668</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>3029021.14251008</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>605938.19181704</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>26493533.9313963</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <v>25627535.2350134</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>151026.705205533</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>44025.4521610737</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>13656.6280502631</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>880762.023363596</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>304087.503108845</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>3501722.81363272</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>4339672.24696746</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>144600.032361014</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>77146.5950160027</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>24016.7139565509</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>824964.012997956</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>166097.259021996</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>3326352.39440016</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>4742902.82225368</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>152332.34718629</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>20746.5866479874</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>21257.2335831864</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>690602.189379641</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>248216.500591761</v>
-      </c>
-      <c r="R13" s="0" t="n">
-        <v>2256503.66961461</v>
-      </c>
-      <c r="S13" s="0" t="n">
-        <v>2839988.7505109</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>95586.352224756</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>44434.8614292145</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>23745.960147704</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <v>1762111.47512834</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>210537.880461124</v>
-      </c>
-      <c r="R14" s="0" t="n">
-        <v>10749783.8699085</v>
-      </c>
-      <c r="S14" s="0" t="n">
-        <v>11357930.6247864</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>140496.716107455</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>40711.18095994</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>31685.9618150527</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <v>1901958.02774353</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>228202.887389718</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>12267859.0065223</v>
-      </c>
-      <c r="S15" s="0" t="n">
-        <v>17272392.3296766</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>97545.0543286785</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>63660.8893508911</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>21743.1312278927</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>2092867.6631152</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>383212.938999941</v>
-      </c>
-      <c r="R16" s="0" t="n">
-        <v>8026241.61778696</v>
-      </c>
-      <c r="S16" s="0" t="n">
-        <v>10004111.2148167</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>171042.086932155</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>67796.4947898388</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>21409.4899098416</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <v>2891252.97461148</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>599445.629190874</v>
-      </c>
-      <c r="R17" s="0" t="n">
-        <v>28208226.3842552</v>
-      </c>
-      <c r="S17" s="0" t="n">
-        <v>31485350.5619204</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:S17"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="248.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="55.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="287.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="16" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>537954.036818773</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>35573.6865539551</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>16817.1971399973</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>1977420.6841908</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>897155.771553822</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>9223292.34100676</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>9506023.30657233</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>869685.824005916</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>16321.2349669933</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>11197.9235423612</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>1014473.14813146</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>980138.802378513</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>3530055.10295724</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>3332241.77892617</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>523324.988595381</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>19457.1445939541</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>23139.5063997565</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>710243.083182635</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>524206.213632387</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>1655541.05256079</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>1717358.55274969</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>864506.886066449</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>28816.4783639908</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>28356.549203413</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>1756254.81005516</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>875715.526022474</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>17298436.0102255</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>17400973.8245714</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>844548.304567426</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>14197.0386722088</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>22040.3466075055</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>1563334.44450489</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>848953.062272082</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>8258748.55147738</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>7543785.07847967</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>522482.897081469</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>23799.4644610882</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>26739.7311264038</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>588469.755401512</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>523251.063773534</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>1240240.98729878</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>1329626.16578799</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>920888.657211376</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>52787.8553440571</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>15939.3303079805</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>990437.594244857</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>935207.552410522</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>1971310.61776476</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>2070858.72712031</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>511655.112921326</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>19652.2111339569</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>16540.2726617584</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>534132.143866599</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>520338.636586131</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>643855.950430568</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>674206.624823728</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>66038.2904398544</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>60674.8983578682</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>16360.5582213668</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>926020.220298434</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>99604.9318749936</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>11083297.853285</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <v>10769416.9043535</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>108949.951729806</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>50988.3835217953</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>13656.6280502631</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>200248.495707664</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>121382.263837047</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>1340983.99481241</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>1259197.63998345</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>73912.2206363735</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>47354.1473350525</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>24016.7139565509</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>183129.855503526</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>76329.8038217451</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>1325229.38546283</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>1704472.26311484</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>110432.217372229</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>41668.6129140854</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>21257.2335831864</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>191797.767348722</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>123933.136558127</v>
-      </c>
-      <c r="R13" s="0" t="n">
-        <v>934435.59323258</v>
-      </c>
-      <c r="S13" s="0" t="n">
-        <v>1035925.83413785</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>74445.0630760042</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>62876.0928900242</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>23745.960147704</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <v>297925.46663134</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>73957.3191796113</v>
-      </c>
-      <c r="R14" s="0" t="n">
-        <v>2420170.02592487</v>
-      </c>
-      <c r="S14" s="0" t="n">
-        <v>2499470.13601189</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>115070.285169121</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>37134.6895549297</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>31685.9618150527</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <v>338446.084196391</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>115882.667888339</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>2659208.00052762</v>
-      </c>
-      <c r="S15" s="0" t="n">
-        <v>2933272.43670067</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>71704.3933309187</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>26193.9959988594</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>21743.1312278927</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>310526.044193345</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>79559.5137332646</v>
-      </c>
-      <c r="R16" s="0" t="n">
-        <v>1872742.3777601</v>
-      </c>
-      <c r="S16" s="0" t="n">
-        <v>2226420.3934249</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>116636.687964172</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>45613.0712919235</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>21409.4899098416</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <v>803986.98402127</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>166074.308879108</v>
-      </c>
-      <c r="R17" s="0" t="n">
-        <v>13267965.99493</v>
-      </c>
-      <c r="S17" s="0" t="n">
-        <v>13487137.7755961</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:S17"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="248.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="54.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="287.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>486907.886932466</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>46554.0493149757</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>16817.1971399973</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>1395738.73008275</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>623570.885550257</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>3876479.75145718</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>4448087.06592885</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>900496.898611232</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>16488.1138911247</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>11197.9235423612</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>936664.381099712</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>907025.643857524</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>2268238.0741195</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>2071000.10094361</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>521479.506213834</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>31984.7635409832</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>23139.5063997565</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>615926.856051078</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>521566.614944994</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>949131.022672108</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>1010984.94125716</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>861513.527213924</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>40847.1505260468</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>28356.549203413</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>1429412.13965963</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>872322.609080368</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>9595205.13416888</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>10099408.7460676</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>841350.582814073</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>24431.8340928555</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>22040.3466075055</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>1279081.46802833</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>846525.856239849</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>4399478.23102202</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>4457063.92348996</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>522446.555770534</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>16035.1202120781</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>26739.7311264038</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>550501.498437679</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>521934.519581183</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>684428.933942014</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>705052.025610856</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>919569.437097987</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>36394.5602221489</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>15939.3303079805</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>948553.051338912</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>920164.00736129</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>1117252.95003404</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>1170747.13346899</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>511284.218941639</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>18641.9212751389</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>16540.2726617584</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>524890.050068194</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>511498.782568917</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>563171.271542075</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>591140.710218814</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>66356.9133085336</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>20929.4788639545</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>16360.5582213668</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>563677.582070343</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>80381.0849614874</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>5524185.62623843</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <v>5431739.20743646</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>108743.263924848</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>30046.2736740112</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>13656.6280502631</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>147186.5322472</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>109802.997416902</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>318587.248214646</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>359075.062541147</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>73368.6452985953</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>32877.6265361309</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>24016.7139565509</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>108314.652872738</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>74533.5072173206</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>250002.448311071</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>311024.114860195</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>109430.084457107</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>29749.2650539875</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>21257.2335831864</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>136793.587119057</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>110668.227390671</v>
-      </c>
-      <c r="R13" s="0" t="n">
-        <v>257865.690047125</v>
-      </c>
-      <c r="S13" s="0" t="n">
-        <v>280744.961548847</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>72052.3788455846</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>74118.1093239784</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>23745.960147704</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <v>160366.82392844</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>72103.9312495417</v>
-      </c>
-      <c r="R14" s="0" t="n">
-        <v>646153.822236945</v>
-      </c>
-      <c r="S14" s="0" t="n">
-        <v>668923.41044472</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>114282.104563077</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>19398.5121629238</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>31685.9618150527</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <v>227218.462126305</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>114877.769904675</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>848494.472537685</v>
-      </c>
-      <c r="S15" s="0" t="n">
-        <v>1110624.14506934</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>70783.564777429</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>33576.8892908096</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>21743.1312278927</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>151596.357445802</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>70762.0856754203</v>
-      </c>
-      <c r="R16" s="0" t="n">
-        <v>489595.286667648</v>
-      </c>
-      <c r="S16" s="0" t="n">
-        <v>561776.328404719</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>115670.254409431</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>99499.5061860085</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>21409.4899098416</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <v>532809.761029605</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>141672.8646762</v>
-      </c>
-      <c r="R17" s="0" t="n">
-        <v>6866469.7365296</v>
-      </c>
-      <c r="S17" s="0" t="n">
-        <v>7067363.71299708</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:S17"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="248.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="287.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="16" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>741498.337158955</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="0" t="n">
         <v>109996.904243946</v>
       </c>
       <c r="G2" s="0" t="n">
@@ -24614,15 +24886,15 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="248.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="248.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="55.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="55.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="287.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.24"/>

--- a/riskaverse_corrected/results/benchmark/combined/csv/combined_benchmarks.xlsx
+++ b/riskaverse_corrected/results/benchmark/combined/csv/combined_benchmarks.xlsx
@@ -512,107 +512,34 @@
     <t xml:space="preserve">vn</t>
   </si>
   <si>
-    <t xml:space="preserve">var_level, where n=100*originalvar_level. Therefore, v5 means var_level is 0.05 (var_level is 0.05 for all runs)</t>
+    <t xml:space="preserve">var_level n/100, where n=100*originalvar_level. Therefore, v5 means var_level is 0.05 (var_level is 0.05 for all runs)</t>
   </si>
   <si>
     <t xml:space="preserve">ln</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">lamda, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">where n=100*originallamda. Therefore, l5 means lamda is 0.5 ( lamda takes values 0, 0.5, 1)</t>
-    </r>
+    <t xml:space="preserve">lamda n/100, where n=100*originallamda. Therefore, l50 means lamda is 0.5 ( lamda takes values 0, 0.5, 1)</t>
   </si>
   <si>
     <t xml:space="preserve">Average runtime of algorithm that uses db</t>
   </si>
   <si>
-    <t xml:space="preserve">Average runtime of algorithm that doesnt use db</t>
+    <t xml:space="preserve">Average runtime of algorithm that doesn’t use db</t>
   </si>
   <si>
     <t xml:space="preserve">Average total cost of algorithm that uses db</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Average </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">total cost </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> of algorithm that doesn’t use db</t>
-    </r>
+    <t xml:space="preserve">Average total cost  of algorithm that doesn’t use db</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Number of times where algorithm using db has lower total cost scores than </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">algorithm not using db</t>
-    </r>
+    <t xml:space="preserve">Number of times where algorithm using db has lower total cost scores than algorithm not using db</t>
   </si>
   <si>
     <t xml:space="preserve">Number of times where algorithm using db has equal total cost scores with algorithm not using db</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Number of times where algorithm using db has lower running time than </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">algorithm using nondb</t>
-    </r>
+    <t xml:space="preserve">Number of times where algorithm using db has lower running time than algorithm using nondb</t>
   </si>
   <si>
     <t xml:space="preserve">checks if total cost value of db is lower than the corresponding nondb tc value</t>
@@ -631,7 +558,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -659,11 +586,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -732,7 +654,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -758,10 +680,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7640,10 +7558,10 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="248.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="248.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="54.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="54.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="287.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.42"/>
@@ -7654,7 +7572,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.6"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -8680,13 +8598,13 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="94.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="101.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -8766,7 +8684,7 @@
       <c r="A13" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -21750,7 +21668,7 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="248.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="248.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="55.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
@@ -22795,10 +22713,10 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="248.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="248.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="54.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="54.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="287.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.42"/>
@@ -22809,7 +22727,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.6"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -23841,7 +23759,7 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="248.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="248.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
@@ -24886,7 +24804,7 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="248.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="248.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="55.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
